--- a/docs/examples/train-TR-ID1-3.xlsx
+++ b/docs/examples/train-TR-ID1-3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\tap-tsi\fte-tom\tom\docs\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A33679-461E-4E97-91FF-E52BFDA644A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F13634-EA34-4EFA-9AC8-BFF57E271162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="195" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,91 +20,274 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>T</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+  <si>
+    <t>Departure D</t>
+  </si>
+  <si>
+    <t>Departure S</t>
+  </si>
+  <si>
+    <t>Arrival H1</t>
+  </si>
+  <si>
+    <t>Departure H1</t>
+  </si>
+  <si>
+    <t>Arrival H2</t>
+  </si>
+  <si>
+    <t>Departure H2</t>
+  </si>
+  <si>
+    <t>Arrival T</t>
   </si>
   <si>
     <t>TR/8350/ID1/2021/12.01/2021-02-01</t>
   </si>
   <si>
+    <t>Mon 01.02.21 00:20  0</t>
+  </si>
+  <si>
+    <t>Tue 02.02.21 00:40  1</t>
+  </si>
+  <si>
+    <t>Tue 02.02.21 08:10  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/12.01/2021-02-02</t>
   </si>
   <si>
+    <t>Tue 02.02.21 00:20  0</t>
+  </si>
+  <si>
+    <t>Wed 03.02.21 00:40  1</t>
+  </si>
+  <si>
+    <t>Wed 03.02.21 08:10  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/12.01/2021-02-03</t>
   </si>
   <si>
+    <t>Wed 03.02.21 00:20  0</t>
+  </si>
+  <si>
+    <t>Thu 04.02.21 00:40  1</t>
+  </si>
+  <si>
+    <t>Thu 04.02.21 08:10  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/12.01/2021-02-04</t>
   </si>
   <si>
+    <t>Thu 04.02.21 00:20  0</t>
+  </si>
+  <si>
+    <t>Fri 05.02.21 00:40  1</t>
+  </si>
+  <si>
+    <t>Fri 05.02.21 08:10  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/11.01/2021-02-04</t>
   </si>
   <si>
+    <t>Thu 04.02.21 23:30  0</t>
+  </si>
+  <si>
+    <t>Fri 05.02.21 23:50  1</t>
+  </si>
+  <si>
+    <t>Sat 06.02.21 07:20  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/11.01/2021-02-05</t>
   </si>
   <si>
+    <t>Fri 05.02.21 23:30  0</t>
+  </si>
+  <si>
+    <t>Sat 06.02.21 23:50  1</t>
+  </si>
+  <si>
+    <t>Sun 07.02.21 07:20  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/11.01/2021-02-06</t>
   </si>
   <si>
+    <t>Sat 06.02.21 23:30  0</t>
+  </si>
+  <si>
+    <t>Sun 07.02.21 23:50  1</t>
+  </si>
+  <si>
+    <t>Mon 08.02.21 07:20  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/30.01/2021-02-08</t>
   </si>
   <si>
+    <t>Mon 08.02.21 01:45  0</t>
+  </si>
+  <si>
+    <t>Tue 09.02.21 00:15  1</t>
+  </si>
+  <si>
+    <t>Tue 09.02.21 07:45  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/30.01/2021-02-09</t>
   </si>
   <si>
+    <t>Tue 09.02.21 01:45  0</t>
+  </si>
+  <si>
+    <t>Wed 10.02.21 00:15  1</t>
+  </si>
+  <si>
+    <t>Wed 10.02.21 07:45  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/30.01/2021-02-10</t>
   </si>
   <si>
+    <t>Wed 10.02.21 01:45  0</t>
+  </si>
+  <si>
+    <t>Thu 11.02.21 00:15  1</t>
+  </si>
+  <si>
+    <t>Thu 11.02.21 07:45  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/20.01/2021-02-11</t>
   </si>
   <si>
+    <t>Thu 11.02.21 23:55  0</t>
+  </si>
+  <si>
+    <t>Sat 13.02.21 00:15  2</t>
+  </si>
+  <si>
+    <t>Sat 13.02.21 07:45  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/30.01/2021-02-11</t>
   </si>
   <si>
+    <t>Thu 11.02.21 01:45  0</t>
+  </si>
+  <si>
+    <t>Fri 12.02.21 00:15  1</t>
+  </si>
+  <si>
+    <t>Fri 12.02.21 07:45  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/20.01/2021-02-12</t>
   </si>
   <si>
+    <t>Fri 12.02.21 23:55  0</t>
+  </si>
+  <si>
+    <t>Sun 14.02.21 00:15  2</t>
+  </si>
+  <si>
+    <t>Sun 14.02.21 07:45  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/20.01/2021-02-13</t>
   </si>
   <si>
+    <t>Sat 13.02.21 23:55  0</t>
+  </si>
+  <si>
+    <t>Mon 15.02.21 00:15  2</t>
+  </si>
+  <si>
+    <t>Mon 15.02.21 07:45  2</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/31.01/2021-02-15</t>
   </si>
   <si>
+    <t>Mon 15.02.21 01:10  0</t>
+  </si>
+  <si>
+    <t>Mon 15.02.21 23:40  0</t>
+  </si>
+  <si>
+    <t>Tue 16.02.21 07:10  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/31.01/2021-02-16</t>
   </si>
   <si>
+    <t>Tue 16.02.21 01:10  0</t>
+  </si>
+  <si>
+    <t>Tue 16.02.21 23:40  0</t>
+  </si>
+  <si>
+    <t>Wed 17.02.21 07:10  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/31.01/2021-02-17</t>
   </si>
   <si>
+    <t>Wed 17.02.21 01:10  0</t>
+  </si>
+  <si>
+    <t>Wed 17.02.21 23:40  0</t>
+  </si>
+  <si>
+    <t>Thu 18.02.21 07:10  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/31.01/2021-02-18</t>
   </si>
   <si>
+    <t>Thu 18.02.21 01:10  0</t>
+  </si>
+  <si>
+    <t>Thu 18.02.21 23:40  0</t>
+  </si>
+  <si>
+    <t>Fri 19.02.21 07:10  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/31.01/2021-02-19</t>
   </si>
   <si>
+    <t>Fri 19.02.21 01:10  0</t>
+  </si>
+  <si>
+    <t>Fri 19.02.21 23:40  0</t>
+  </si>
+  <si>
+    <t>Sat 20.02.21 07:10  1</t>
+  </si>
+  <si>
     <t>TR/8350/ID1/2021/31.01/2021-02-20</t>
+  </si>
+  <si>
+    <t>Sat 20.02.21 01:10  0</t>
+  </si>
+  <si>
+    <t>Sat 20.02.21 23:40  0</t>
+  </si>
+  <si>
+    <t>Sun 21.02.21 07:10  1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,41 +296,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -174,27 +340,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -495,320 +651,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>44228.013888888891</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44229.027777777781</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44229.340277777781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>44229.013888888891</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44230.027777777781</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44230.340277777781</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <v>44230.013888888891</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44231.027777777781</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44231.340277777781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6">
-        <v>44231.013888888891</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44232.027777777781</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44232.340277777781</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6">
-        <v>44231.979166666657</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44232.993055555547</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44233.305555555547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>44232.979166666657</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44233.993055555547</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44234.305555555547</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
-        <v>44233.979166666657</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44234.993055555547</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44235.305555555547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
-        <v>44235.072916666657</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44236.010416666657</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44236.322916666657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
-        <v>44236.072916666657</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44237.010416666657</v>
-      </c>
-      <c r="F10" s="2">
-        <v>44237.322916666657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
-        <v>44237.072916666657</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44238.010416666657</v>
-      </c>
-      <c r="F11" s="2">
-        <v>44238.322916666657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5">
-        <v>44238.996527777781</v>
-      </c>
-      <c r="D12" s="2">
-        <v>44240.010416666657</v>
-      </c>
-      <c r="F12" s="2">
-        <v>44240.322916666657</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
-        <v>44238.072916666657</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2">
-        <v>44239.010416666657</v>
-      </c>
-      <c r="F13" s="2">
-        <v>44239.322916666657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
-        <v>44239.996527777781</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44241.010416666657</v>
-      </c>
-      <c r="F14" s="2">
-        <v>44241.322916666657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2">
-        <v>44240.996527777781</v>
-      </c>
-      <c r="D15" s="2">
-        <v>44242.010416666657</v>
-      </c>
-      <c r="F15" s="2">
-        <v>44242.322916666657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
-        <v>44242.048611111109</v>
-      </c>
-      <c r="D16" s="2">
-        <v>44242.986111111109</v>
-      </c>
-      <c r="F16" s="2">
-        <v>44243.298611111109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2">
-        <v>44243.048611111109</v>
-      </c>
-      <c r="D17" s="2">
-        <v>44243.986111111109</v>
-      </c>
-      <c r="F17" s="2">
-        <v>44244.298611111109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2">
-        <v>44244.048611111109</v>
-      </c>
-      <c r="D18" s="2">
-        <v>44244.986111111109</v>
-      </c>
-      <c r="F18" s="2">
-        <v>44245.298611111109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="2">
-        <v>44245.048611111109</v>
-      </c>
-      <c r="D19" s="2">
-        <v>44245.986111111109</v>
-      </c>
-      <c r="F19" s="2">
-        <v>44246.298611111109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="2">
-        <v>44246.048611111109</v>
-      </c>
-      <c r="D20" s="2">
-        <v>44246.986111111109</v>
-      </c>
-      <c r="F20" s="2">
-        <v>44247.298611111109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="2">
-        <v>44247.048611111109</v>
-      </c>
-      <c r="D21" s="2">
-        <v>44247.986111111109</v>
-      </c>
-      <c r="F21" s="2">
-        <v>44248.298611111109</v>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>